--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -465,17 +465,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>18/05/2024</t>
+          <t>19/05/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -484,7 +484,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>19/05/2024</t>
+          <t>20/05/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -503,7 +503,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>21/05/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -522,7 +522,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>22/05/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -541,7 +541,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>23/05/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -560,7 +560,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>24/05/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -579,7 +579,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>25/05/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -598,7 +598,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>26/05/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -617,7 +617,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>26/05/2024</t>
+          <t>27/05/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -636,7 +636,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>27/05/2024</t>
+          <t>28/05/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -721,11 +721,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>18/05/2024</t>
+          <t>19/05/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -755,7 +755,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>19/05/2024</t>
+          <t>20/05/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -789,7 +789,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>21/05/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -823,7 +823,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>22/05/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -857,7 +857,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>23/05/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -891,7 +891,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>24/05/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -925,7 +925,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>25/05/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -959,7 +959,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>26/05/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -993,7 +993,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>26/05/2024</t>
+          <t>27/05/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1027,7 +1027,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>27/05/2024</t>
+          <t>28/05/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1102,11 +1102,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>18/05/2024</t>
+          <t>19/05/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -1121,7 +1121,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>19/05/2024</t>
+          <t>20/05/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1140,7 +1140,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>21/05/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1159,7 +1159,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>22/05/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1178,7 +1178,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>23/05/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1197,7 +1197,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>24/05/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1216,7 +1216,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>25/05/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1235,7 +1235,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>26/05/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1254,7 +1254,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>26/05/2024</t>
+          <t>27/05/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1273,7 +1273,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>27/05/2024</t>
+          <t>28/05/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1358,11 +1358,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>18/05/2024</t>
+          <t>19/05/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -1392,7 +1392,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>19/05/2024</t>
+          <t>20/05/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1426,7 +1426,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>21/05/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1460,7 +1460,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>22/05/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1494,7 +1494,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>23/05/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1528,7 +1528,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>24/05/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1562,7 +1562,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>25/05/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1596,7 +1596,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>26/05/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1630,7 +1630,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>26/05/2024</t>
+          <t>27/05/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1664,7 +1664,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>27/05/2024</t>
+          <t>28/05/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1739,11 +1739,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>18/05/2024</t>
+          <t>19/05/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -1758,7 +1758,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>19/05/2024</t>
+          <t>20/05/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1777,7 +1777,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>21/05/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1796,7 +1796,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>22/05/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1815,7 +1815,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>23/05/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1834,7 +1834,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>24/05/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1853,7 +1853,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>25/05/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1872,7 +1872,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>26/05/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1891,7 +1891,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>26/05/2024</t>
+          <t>27/05/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1910,7 +1910,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>27/05/2024</t>
+          <t>28/05/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1995,11 +1995,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>18/05/2024</t>
+          <t>19/05/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -2029,7 +2029,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>19/05/2024</t>
+          <t>20/05/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2063,7 +2063,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>21/05/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2097,7 +2097,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>22/05/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2131,7 +2131,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>23/05/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2165,7 +2165,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>24/05/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2199,7 +2199,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>25/05/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2233,7 +2233,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>26/05/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2267,7 +2267,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>26/05/2024</t>
+          <t>27/05/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2301,7 +2301,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>27/05/2024</t>
+          <t>28/05/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2376,7 +2376,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>18/05/2024</t>
+          <t>19/05/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2395,7 +2395,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>19/05/2024</t>
+          <t>20/05/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2414,7 +2414,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>21/05/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2433,7 +2433,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>22/05/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2452,7 +2452,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>23/05/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2471,7 +2471,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>24/05/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2490,7 +2490,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>25/05/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2509,7 +2509,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>26/05/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2528,7 +2528,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>26/05/2024</t>
+          <t>27/05/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2547,7 +2547,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>27/05/2024</t>
+          <t>28/05/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2632,7 +2632,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>18/05/2024</t>
+          <t>19/05/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2666,7 +2666,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>19/05/2024</t>
+          <t>20/05/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2700,7 +2700,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>21/05/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2734,7 +2734,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>22/05/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2768,7 +2768,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>23/05/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2802,7 +2802,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>24/05/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2836,7 +2836,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>25/05/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2870,7 +2870,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>26/05/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2904,7 +2904,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>26/05/2024</t>
+          <t>27/05/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2938,7 +2938,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>27/05/2024</t>
+          <t>28/05/2024</t>
         </is>
       </c>
       <c r="B11" t="n">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -465,7 +465,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>19/05/2024</t>
+          <t>20/05/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -484,7 +484,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>21/05/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -503,7 +503,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>22/05/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -522,7 +522,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>23/05/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -541,7 +541,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>24/05/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -560,7 +560,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>25/05/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -579,7 +579,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>26/05/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -598,7 +598,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>26/05/2024</t>
+          <t>27/05/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -617,7 +617,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>27/05/2024</t>
+          <t>28/05/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -634,9 +634,9 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>29/05/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -721,7 +721,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>19/05/2024</t>
+          <t>20/05/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -755,7 +755,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>21/05/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -789,7 +789,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>22/05/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -823,7 +823,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>23/05/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -857,7 +857,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>24/05/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -891,7 +891,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>25/05/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -925,7 +925,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>26/05/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -959,7 +959,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>26/05/2024</t>
+          <t>27/05/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -993,7 +993,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>27/05/2024</t>
+          <t>28/05/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1025,9 +1025,9 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>29/05/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1102,7 +1102,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>19/05/2024</t>
+          <t>20/05/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1121,7 +1121,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>21/05/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1140,7 +1140,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>22/05/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1159,7 +1159,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>23/05/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1178,7 +1178,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>24/05/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1197,7 +1197,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>25/05/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1216,7 +1216,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>26/05/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1235,7 +1235,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>26/05/2024</t>
+          <t>27/05/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1254,7 +1254,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>27/05/2024</t>
+          <t>28/05/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1271,9 +1271,9 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>29/05/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1358,7 +1358,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>19/05/2024</t>
+          <t>20/05/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1392,7 +1392,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>21/05/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1426,7 +1426,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>22/05/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1460,7 +1460,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>23/05/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1494,7 +1494,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>24/05/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1528,7 +1528,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>25/05/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1562,7 +1562,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>26/05/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1596,7 +1596,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>26/05/2024</t>
+          <t>27/05/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1630,7 +1630,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>27/05/2024</t>
+          <t>28/05/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1662,9 +1662,9 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>29/05/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1739,7 +1739,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>19/05/2024</t>
+          <t>20/05/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1758,7 +1758,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>21/05/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1777,7 +1777,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>22/05/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1796,7 +1796,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>23/05/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1815,7 +1815,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>24/05/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1834,7 +1834,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>25/05/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1853,7 +1853,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>26/05/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1872,7 +1872,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>26/05/2024</t>
+          <t>27/05/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1891,7 +1891,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>27/05/2024</t>
+          <t>28/05/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1908,9 +1908,9 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>29/05/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1995,7 +1995,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>19/05/2024</t>
+          <t>20/05/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2029,7 +2029,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>21/05/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2063,7 +2063,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>22/05/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2097,7 +2097,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>23/05/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2131,7 +2131,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>24/05/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2165,7 +2165,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>25/05/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2199,7 +2199,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>26/05/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2233,7 +2233,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>26/05/2024</t>
+          <t>27/05/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2267,7 +2267,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>27/05/2024</t>
+          <t>28/05/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2299,9 +2299,9 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>29/05/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2376,7 +2376,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>19/05/2024</t>
+          <t>20/05/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2395,7 +2395,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>21/05/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2414,7 +2414,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>22/05/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2433,7 +2433,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>23/05/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2452,7 +2452,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>24/05/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2471,7 +2471,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>25/05/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2490,7 +2490,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>26/05/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2509,7 +2509,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>26/05/2024</t>
+          <t>27/05/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2528,7 +2528,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>27/05/2024</t>
+          <t>28/05/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2545,9 +2545,9 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>29/05/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2632,7 +2632,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>19/05/2024</t>
+          <t>20/05/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2666,7 +2666,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>21/05/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2700,7 +2700,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>22/05/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2734,7 +2734,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>23/05/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2768,7 +2768,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>24/05/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2802,7 +2802,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>25/05/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2836,7 +2836,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>26/05/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2870,7 +2870,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>26/05/2024</t>
+          <t>27/05/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2904,7 +2904,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>27/05/2024</t>
+          <t>28/05/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2936,9 +2936,9 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>29/05/2024</t>
         </is>
       </c>
       <c r="B11" t="n">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -465,11 +465,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>08/06/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -484,7 +484,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>09/06/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -503,7 +503,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>10/06/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -522,7 +522,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>11/06/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -541,7 +541,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -560,7 +560,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>13/06/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -577,9 +577,9 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>26/05/2024</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -596,9 +596,9 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>27/05/2024</t>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -615,9 +615,9 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -636,7 +636,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>29/05/2024</t>
+          <t>17/06/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -721,7 +721,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>08/06/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -755,7 +755,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>09/06/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -789,7 +789,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>10/06/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -823,7 +823,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>11/06/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -857,7 +857,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -891,7 +891,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>13/06/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -923,9 +923,9 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>26/05/2024</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -957,9 +957,9 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>27/05/2024</t>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -991,9 +991,9 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1027,7 +1027,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>29/05/2024</t>
+          <t>17/06/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1102,7 +1102,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>08/06/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1121,7 +1121,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>09/06/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1140,7 +1140,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>10/06/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1159,7 +1159,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>11/06/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1178,7 +1178,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1197,7 +1197,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>13/06/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1214,9 +1214,9 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>26/05/2024</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1233,9 +1233,9 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>27/05/2024</t>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1252,9 +1252,9 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1273,7 +1273,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>29/05/2024</t>
+          <t>17/06/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1358,14 +1358,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>08/06/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>5</v>
@@ -1392,7 +1392,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>09/06/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1426,7 +1426,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>10/06/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1460,7 +1460,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>11/06/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1494,7 +1494,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1528,7 +1528,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>13/06/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1560,9 +1560,9 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>26/05/2024</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1594,9 +1594,9 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>27/05/2024</t>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1628,9 +1628,9 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1664,7 +1664,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>29/05/2024</t>
+          <t>17/06/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1739,11 +1739,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>08/06/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -1758,7 +1758,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>09/06/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1777,11 +1777,11 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>10/06/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -1796,7 +1796,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>11/06/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1815,7 +1815,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1834,7 +1834,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>13/06/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1851,9 +1851,9 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>26/05/2024</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1870,9 +1870,9 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>27/05/2024</t>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1882,16 +1882,16 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1910,7 +1910,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>29/05/2024</t>
+          <t>17/06/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1995,11 +1995,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>08/06/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -2029,7 +2029,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>09/06/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2063,7 +2063,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>10/06/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2097,7 +2097,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>11/06/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2131,7 +2131,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2165,7 +2165,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>13/06/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2197,9 +2197,9 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>26/05/2024</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2231,9 +2231,9 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>27/05/2024</t>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2265,9 +2265,9 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2301,7 +2301,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>29/05/2024</t>
+          <t>17/06/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2376,7 +2376,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>08/06/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2395,7 +2395,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>09/06/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2414,7 +2414,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>10/06/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2433,7 +2433,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>11/06/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2452,7 +2452,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2471,7 +2471,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>13/06/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2488,9 +2488,9 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>26/05/2024</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2507,9 +2507,9 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>27/05/2024</t>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2526,9 +2526,9 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2547,7 +2547,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>29/05/2024</t>
+          <t>17/06/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2632,7 +2632,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>20/05/2024</t>
+          <t>08/06/2024</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2666,7 +2666,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>21/05/2024</t>
+          <t>09/06/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2700,7 +2700,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>22/05/2024</t>
+          <t>10/06/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2734,7 +2734,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>23/05/2024</t>
+          <t>11/06/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2768,7 +2768,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>24/05/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2802,7 +2802,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>25/05/2024</t>
+          <t>13/06/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2834,9 +2834,9 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>26/05/2024</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2868,9 +2868,9 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>27/05/2024</t>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2902,9 +2902,9 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2938,7 +2938,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>29/05/2024</t>
+          <t>17/06/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
